--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_35.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77134.36036802827</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77134.36036802827</v>
+        <v>5151068.340509113</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1340458221.913741</v>
+        <v>48027779.14007173</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13150.61408028127</v>
+        <v>982551.1501680263</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26300.06349738163</v>
+        <v>1965102.300336053</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39454.57127335927</v>
+        <v>2947653.450504079</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52885.26663144653</v>
+        <v>3929219.807561</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66315.96198953378</v>
+        <v>4910786.164617922</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79746.65734762103</v>
+        <v>5892352.521674842</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93177.35270570828</v>
+        <v>6873918.878731756</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>106607.9737967107</v>
+        <v>7855485.235788669</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120038.669154798</v>
+        <v>8837051.592845583</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>133469.3645128853</v>
+        <v>9818617.949902499</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146900.0598709725</v>
+        <v>10800184.30695941</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>160330.6809619749</v>
+        <v>11781750.66401633</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>173761.3020529773</v>
+        <v>12763317.02107326</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>187191.9974110646</v>
+        <v>13744883.37813019</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>200622.692769152</v>
+        <v>14726449.73518712</v>
       </c>
     </row>
   </sheetData>
